--- a/Abstract.xlsx
+++ b/Abstract.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARC\Desktop\AVR BenchMark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARC\Documents\GitHub\AVR-BenchMarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1DBE153-011A-44F0-9285-63BB22B8D71D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92C63BA5-D829-47E2-9254-9D070EB358A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{01670855-DC0C-49F3-A1F4-D8F9DF01D394}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{01670855-DC0C-49F3-A1F4-D8F9DF01D394}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstraction" sheetId="4" r:id="rId1"/>
@@ -5229,7 +5229,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
@@ -5363,7 +5363,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
